--- a/public/files/medlink-csvfileformat.xlsx
+++ b/public/files/medlink-csvfileformat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MedLink\MedLink-Frontend\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D564C082-8EB8-4130-83B8-A6B081B761E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993F9B88-EC64-44CD-82B0-A6F2FED1F69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{571D150A-144E-42FE-BD6E-D84543869C54}"/>
   </bookViews>
@@ -84,9 +84,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838CABB0-8E82-4B4E-99A2-E7F3D7E53AFF}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,14 +429,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
